--- a/AFL_ML/Data/Geelong_stats.xlsx
+++ b/AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KZ102"/>
+  <dimension ref="A1:LA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1389,8 +1389,11 @@
       <c r="KY1" s="2" t="n">
         <v>10748</v>
       </c>
-      <c r="KZ1" t="n">
+      <c r="KZ1" s="2" t="n">
         <v>10748</v>
+      </c>
+      <c r="LA1" t="n">
+        <v>10750</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2329,7 +2332,10 @@
       <c r="KY2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="KZ2" t="n">
+      <c r="KZ2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="LA2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3269,8 +3275,11 @@
       <c r="KY3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KZ3" t="n">
+      <c r="KZ3" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="LA3" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4209,7 +4218,10 @@
       <c r="KY4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ4" t="n">
+      <c r="KZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5149,7 +5161,10 @@
       <c r="KY5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ5" t="n">
+      <c r="KZ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LA5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6089,8 +6104,11 @@
       <c r="KY6" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="KZ6" t="n">
+      <c r="KZ6" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="LA6" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -7029,8 +7047,11 @@
       <c r="KY7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KZ7" t="n">
+      <c r="KZ7" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LA7" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -7969,8 +7990,11 @@
       <c r="KY8" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="KZ8" t="n">
+      <c r="KZ8" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="LA8" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8909,7 +8933,10 @@
       <c r="KY9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ9" t="n">
+      <c r="KZ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LA9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9849,8 +9876,11 @@
       <c r="KY10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KZ10" t="n">
+      <c r="KZ10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LA10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10789,8 +10819,11 @@
       <c r="KY11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="KZ11" t="n">
+      <c r="KZ11" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="LA11" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11729,8 +11762,11 @@
       <c r="KY12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KZ12" t="n">
+      <c r="KZ12" s="2" t="n">
         <v>152</v>
+      </c>
+      <c r="LA12" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12669,8 +12705,11 @@
       <c r="KY13" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="KZ13" t="n">
+      <c r="KZ13" s="2" t="n">
         <v>361</v>
+      </c>
+      <c r="LA13" t="n">
+        <v>395</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13609,8 +13648,11 @@
       <c r="KY14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="KZ14" t="n">
+      <c r="KZ14" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="LA14" t="n">
+        <v>1.78</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14549,8 +14591,11 @@
       <c r="KY15" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="KZ15" t="n">
+      <c r="KZ15" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="LA15" t="n">
+        <v>124</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15489,8 +15534,11 @@
       <c r="KY16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KZ16" t="n">
+      <c r="KZ16" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="LA16" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16429,8 +16477,11 @@
       <c r="KY17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KZ17" t="n">
+      <c r="KZ17" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LA17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -17369,8 +17420,11 @@
       <c r="KY18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KZ18" t="n">
+      <c r="KZ18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LA18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -18309,8 +18363,11 @@
       <c r="KY19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KZ19" t="n">
+      <c r="KZ19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LA19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -19249,8 +19306,11 @@
       <c r="KY20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KZ20" t="n">
+      <c r="KZ20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LA20" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -20189,7 +20249,10 @@
       <c r="KY21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ21" t="n">
+      <c r="KZ21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LA21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -21129,8 +21192,11 @@
       <c r="KY22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KZ22" t="n">
+      <c r="KZ22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LA22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -22069,7 +22135,10 @@
       <c r="KY23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KZ23" t="n">
+      <c r="KZ23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LA23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23009,8 +23078,11 @@
       <c r="KY24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="KZ24" t="n">
+      <c r="KZ24" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="LA24" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -23949,8 +24021,11 @@
       <c r="KY25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KZ25" t="n">
+      <c r="KZ25" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="LA25" t="n">
+        <v>60.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -24889,8 +24964,11 @@
       <c r="KY26" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="KZ26" t="n">
+      <c r="KZ26" s="2" t="n">
         <v>20.06</v>
+      </c>
+      <c r="LA26" t="n">
+        <v>19.75</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -25829,8 +25907,11 @@
       <c r="KY27" s="2" t="n">
         <v>12.03</v>
       </c>
-      <c r="KZ27" t="n">
+      <c r="KZ27" s="2" t="n">
         <v>12.03</v>
+      </c>
+      <c r="LA27" t="n">
+        <v>11.97</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -26769,8 +26850,11 @@
       <c r="KY28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ28" t="n">
+      <c r="KZ28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -27709,8 +27793,11 @@
       <c r="KY29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KZ29" t="n">
+      <c r="KZ29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="LA29" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -28649,8 +28736,11 @@
       <c r="KY30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KZ30" t="n">
+      <c r="KZ30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LA30" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -29589,8 +29679,11 @@
       <c r="KY31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="KZ31" t="n">
+      <c r="KZ31" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="LA31" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -30529,8 +30622,11 @@
       <c r="KY32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="KZ32" t="n">
+      <c r="KZ32" s="2" t="n">
         <v>1.97</v>
+      </c>
+      <c r="LA32" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -31469,8 +31565,11 @@
       <c r="KY33" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="KZ33" t="n">
+      <c r="KZ33" s="2" t="n">
         <v>3.28</v>
+      </c>
+      <c r="LA33" t="n">
+        <v>3.15</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -32409,8 +32508,11 @@
       <c r="KY34" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="KZ34" t="n">
+      <c r="KZ34" s="2" t="n">
         <v>47.5</v>
+      </c>
+      <c r="LA34" t="n">
+        <v>49.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -33349,8 +33451,11 @@
       <c r="KY35" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="KZ35" t="n">
+      <c r="KZ35" s="2" t="n">
         <v>30.5</v>
+      </c>
+      <c r="LA35" t="n">
+        <v>31.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -34289,8 +34394,11 @@
       <c r="KY36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="KZ36" t="n">
+      <c r="KZ36" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="LA36" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -35229,8 +35337,11 @@
       <c r="KY37" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KZ37" t="n">
+      <c r="KZ37" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="LA37" t="n">
+        <v>88.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -36169,8 +36280,11 @@
       <c r="KY38" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="KZ38" t="n">
+      <c r="KZ38" s="2" t="n">
         <v>28.33</v>
+      </c>
+      <c r="LA38" t="n">
+        <v>28.58</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -37109,8 +37223,11 @@
       <c r="KY39" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="KZ39" t="n">
+      <c r="KZ39" s="2" t="n">
         <v>163.1</v>
+      </c>
+      <c r="LA39" t="n">
+        <v>167.6</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -38049,8 +38166,11 @@
       <c r="KY40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KZ40" t="n">
+      <c r="KZ40" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LA40" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -38989,7 +39109,10 @@
       <c r="KY41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ41" t="n">
+      <c r="KZ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LA41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -39929,8 +40052,11 @@
       <c r="KY42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KZ42" t="n">
+      <c r="KZ42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LA42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -40869,7 +40995,10 @@
       <c r="KY43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KZ43" t="n">
+      <c r="KZ43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LA43" t="n">
         <v>13</v>
       </c>
     </row>
@@ -41809,8 +41938,11 @@
       <c r="KY44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KZ44" t="n">
+      <c r="KZ44" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="LA44" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -42749,8 +42881,11 @@
       <c r="KY45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="KZ45" t="n">
+      <c r="KZ45" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="LA45" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -43689,8 +43824,11 @@
       <c r="KY46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="KZ46" t="n">
+      <c r="KZ46" s="2" t="n">
         <v>274</v>
+      </c>
+      <c r="LA46" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -44629,8 +44767,11 @@
       <c r="KY47" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="KZ47" t="n">
+      <c r="KZ47" s="2" t="n">
         <v>75.90000000000001</v>
+      </c>
+      <c r="LA47" t="n">
+        <v>74.90000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -45569,8 +45710,11 @@
       <c r="KY48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KZ48" t="n">
+      <c r="KZ48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="LA48" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -46509,8 +46653,11 @@
       <c r="KY49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KZ49" t="n">
+      <c r="KZ49" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LA49" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -47449,8 +47596,11 @@
       <c r="KY50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KZ50" t="n">
+      <c r="KZ50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LA50" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -48389,8 +48539,11 @@
       <c r="KY51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ51" t="n">
+      <c r="KZ51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -49329,8 +49482,11 @@
       <c r="KY52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KZ52" t="n">
+      <c r="KZ52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LA52" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -50269,8 +50425,11 @@
       <c r="KY53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KZ53" t="n">
+      <c r="KZ53" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="LA53" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -51209,8 +51368,11 @@
       <c r="KY54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ54" t="n">
+      <c r="KZ54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -52149,7 +52311,10 @@
       <c r="KY55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ55" t="n">
+      <c r="KZ55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LA55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -53089,8 +53254,11 @@
       <c r="KY56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KZ56" t="n">
+      <c r="KZ56" s="2" t="n">
         <v>77.8</v>
+      </c>
+      <c r="LA56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -54029,8 +54197,11 @@
       <c r="KY57" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="KZ57" t="n">
+      <c r="KZ57" s="2" t="n">
         <v>197</v>
+      </c>
+      <c r="LA57" t="n">
+        <v>166</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -54969,8 +55140,11 @@
       <c r="KY58" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="KZ58" t="n">
+      <c r="KZ58" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="LA58" t="n">
+        <v>138</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -55909,8 +56083,11 @@
       <c r="KY59" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="KZ59" t="n">
+      <c r="KZ59" s="2" t="n">
         <v>296</v>
+      </c>
+      <c r="LA59" t="n">
+        <v>304</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -56849,8 +57026,11 @@
       <c r="KY60" s="2" t="n">
         <v>1.99</v>
       </c>
-      <c r="KZ60" t="n">
+      <c r="KZ60" s="2" t="n">
         <v>1.99</v>
+      </c>
+      <c r="LA60" t="n">
+        <v>1.2</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -57789,8 +57969,11 @@
       <c r="KY61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KZ61" t="n">
+      <c r="KZ61" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="LA61" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -58729,8 +58912,11 @@
       <c r="KY62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KZ62" t="n">
+      <c r="KZ62" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="LA62" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -59669,8 +59855,11 @@
       <c r="KY63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KZ63" t="n">
+      <c r="KZ63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LA63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -60609,8 +60798,11 @@
       <c r="KY64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KZ64" t="n">
+      <c r="KZ64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="LA64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -61549,8 +61741,11 @@
       <c r="KY65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KZ65" t="n">
+      <c r="KZ65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LA65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -62489,8 +62684,11 @@
       <c r="KY66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ66" t="n">
+      <c r="KZ66" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -63429,8 +63627,11 @@
       <c r="KY67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ67" t="n">
+      <c r="KZ67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -64369,8 +64570,11 @@
       <c r="KY68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ68" t="n">
+      <c r="KZ68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA68" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -65309,8 +65513,11 @@
       <c r="KY69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KZ69" t="n">
+      <c r="KZ69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LA69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -66249,8 +66456,11 @@
       <c r="KY70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KZ70" t="n">
+      <c r="KZ70" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LA70" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -67189,8 +67399,11 @@
       <c r="KY71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ71" t="n">
+      <c r="KZ71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LA71" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -68129,8 +68342,11 @@
       <c r="KY72" s="2" t="n">
         <v>42.29</v>
       </c>
-      <c r="KZ72" t="n">
+      <c r="KZ72" s="2" t="n">
         <v>42.29</v>
+      </c>
+      <c r="LA72" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -69069,8 +69285,11 @@
       <c r="KY73" s="2" t="n">
         <v>21.14</v>
       </c>
-      <c r="KZ73" t="n">
+      <c r="KZ73" s="2" t="n">
         <v>21.14</v>
+      </c>
+      <c r="LA73" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -70009,8 +70228,11 @@
       <c r="KY74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KZ74" t="n">
+      <c r="KZ74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LA74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -70949,8 +71171,11 @@
       <c r="KY75" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ75" t="n">
+      <c r="KZ75" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LA75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -71889,8 +72114,11 @@
       <c r="KY76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KZ76" t="n">
+      <c r="KZ76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LA76" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -72829,8 +73057,11 @@
       <c r="KY77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KZ77" t="n">
+      <c r="KZ77" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LA77" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -73769,8 +74000,11 @@
       <c r="KY78" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="KZ78" t="n">
+      <c r="KZ78" s="2" t="n">
         <v>3.29</v>
+      </c>
+      <c r="LA78" t="n">
+        <v>2.67</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -74709,8 +74943,11 @@
       <c r="KY79" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="KZ79" t="n">
+      <c r="KZ79" s="2" t="n">
         <v>6.57</v>
+      </c>
+      <c r="LA79" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -75649,8 +75886,11 @@
       <c r="KY80" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="KZ80" t="n">
+      <c r="KZ80" s="2" t="n">
         <v>30.4</v>
+      </c>
+      <c r="LA80" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -76589,8 +76829,11 @@
       <c r="KY81" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="KZ81" t="n">
+      <c r="KZ81" s="2" t="n">
         <v>15.2</v>
+      </c>
+      <c r="LA81" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -77529,8 +77772,11 @@
       <c r="KY82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="KZ82" t="n">
+      <c r="KZ82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="LA82" t="n">
+        <v>187.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -78469,8 +78715,11 @@
       <c r="KY83" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="KZ83" t="n">
+      <c r="KZ83" s="2" t="n">
         <v>87.8</v>
+      </c>
+      <c r="LA83" t="n">
+        <v>86.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -79409,8 +79658,11 @@
       <c r="KY84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="KZ84" t="n">
+      <c r="KZ84" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="LA84" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -80349,8 +80601,11 @@
       <c r="KY85" s="2" t="n">
         <v>116.6</v>
       </c>
-      <c r="KZ85" t="n">
+      <c r="KZ85" s="2" t="n">
         <v>116.6</v>
+      </c>
+      <c r="LA85" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -81289,8 +81544,11 @@
       <c r="KY86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KZ86" t="n">
+      <c r="KZ86" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LA86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -82229,8 +82487,11 @@
       <c r="KY87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KZ87" t="n">
+      <c r="KZ87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LA87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -83169,8 +83430,11 @@
       <c r="KY88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KZ88" t="n">
+      <c r="KZ88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LA88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -84109,8 +84373,11 @@
       <c r="KY89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ89" t="n">
+      <c r="KZ89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -85049,8 +85316,11 @@
       <c r="KY90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="KZ90" t="n">
+      <c r="KZ90" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="LA90" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -85989,8 +86259,11 @@
       <c r="KY91" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="KZ91" t="n">
+      <c r="KZ91" s="2" t="n">
         <v>177</v>
+      </c>
+      <c r="LA91" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -86929,8 +87202,11 @@
       <c r="KY92" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="KZ92" t="n">
+      <c r="KZ92" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="LA92" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -87869,8 +88145,11 @@
       <c r="KY93" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="KZ93" t="n">
+      <c r="KZ93" s="2" t="n">
         <v>67.59999999999999</v>
+      </c>
+      <c r="LA93" t="n">
+        <v>76.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -88809,8 +89088,11 @@
       <c r="KY94" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KZ94" t="n">
+      <c r="KZ94" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LA94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -89749,8 +90031,11 @@
       <c r="KY95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KZ95" t="n">
+      <c r="KZ95" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LA95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -90689,8 +90974,11 @@
       <c r="KY96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KZ96" t="n">
+      <c r="KZ96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LA96" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -91629,8 +91917,11 @@
       <c r="KY97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KZ97" t="n">
+      <c r="KZ97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="LA97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -92569,8 +92860,11 @@
       <c r="KY98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="KZ98" t="n">
+      <c r="KZ98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="LA98" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -93509,8 +93803,11 @@
       <c r="KY99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="KZ99" t="n">
+      <c r="KZ99" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LA99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -94449,8 +94746,11 @@
       <c r="KY100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KZ100" t="n">
+      <c r="KZ100" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LA100" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -95389,8 +95689,11 @@
       <c r="KY101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KZ101" t="n">
+      <c r="KZ101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LA101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -96329,8 +96632,11 @@
       <c r="KY102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="KZ102" t="n">
+      <c r="KZ102" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="LA102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Geelong_stats.xlsx
+++ b/AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LA102"/>
+  <dimension ref="A1:LC102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1392,7 +1392,13 @@
       <c r="KZ1" s="2" t="n">
         <v>10748</v>
       </c>
-      <c r="LA1" t="n">
+      <c r="LA1" s="2" t="n">
+        <v>10750</v>
+      </c>
+      <c r="LB1" s="2" t="n">
+        <v>10750</v>
+      </c>
+      <c r="LC1" t="n">
         <v>10750</v>
       </c>
     </row>
@@ -2335,7 +2341,13 @@
       <c r="KZ2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="LA2" t="n">
+      <c r="LA2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="LB2" s="2" t="n">
+        <v>2022</v>
+      </c>
+      <c r="LC2" t="n">
         <v>2022</v>
       </c>
     </row>
@@ -3278,7 +3290,13 @@
       <c r="KZ3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="LA3" t="n">
+      <c r="LA3" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LB3" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="LC3" t="n">
         <v>28</v>
       </c>
     </row>
@@ -4221,7 +4239,13 @@
       <c r="KZ4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA4" t="n">
+      <c r="LA4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5164,7 +5188,13 @@
       <c r="KZ5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA5" t="n">
+      <c r="LA5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LB5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LC5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6107,7 +6137,13 @@
       <c r="KZ6" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="LA6" t="n">
+      <c r="LA6" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="LB6" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="LC6" t="n">
         <v>133</v>
       </c>
     </row>
@@ -7050,7 +7086,13 @@
       <c r="KZ7" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="LA7" t="n">
+      <c r="LA7" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LB7" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="LC7" t="n">
         <v>52</v>
       </c>
     </row>
@@ -7993,7 +8035,13 @@
       <c r="KZ8" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="LA8" t="n">
+      <c r="LA8" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="LB8" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="LC8" t="n">
         <v>81</v>
       </c>
     </row>
@@ -8936,7 +8984,13 @@
       <c r="KZ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LA9" t="n">
+      <c r="LA9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9879,7 +9933,13 @@
       <c r="KZ10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LA10" t="n">
+      <c r="LA10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LB10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="LC10" t="n">
         <v>16</v>
       </c>
     </row>
@@ -10822,7 +10882,13 @@
       <c r="KZ11" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="LA11" t="n">
+      <c r="LA11" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="LB11" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="LC11" t="n">
         <v>253</v>
       </c>
     </row>
@@ -11765,7 +11831,13 @@
       <c r="KZ12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="LA12" t="n">
+      <c r="LA12" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="LB12" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="LC12" t="n">
         <v>142</v>
       </c>
     </row>
@@ -12708,7 +12780,13 @@
       <c r="KZ13" s="2" t="n">
         <v>361</v>
       </c>
-      <c r="LA13" t="n">
+      <c r="LA13" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="LB13" s="2" t="n">
+        <v>395</v>
+      </c>
+      <c r="LC13" t="n">
         <v>395</v>
       </c>
     </row>
@@ -13651,7 +13729,13 @@
       <c r="KZ14" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="LA14" t="n">
+      <c r="LA14" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="LB14" s="2" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="LC14" t="n">
         <v>1.78</v>
       </c>
     </row>
@@ -14594,7 +14678,13 @@
       <c r="KZ15" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="LA15" t="n">
+      <c r="LA15" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LB15" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="LC15" t="n">
         <v>124</v>
       </c>
     </row>
@@ -15537,7 +15627,13 @@
       <c r="KZ16" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="LA16" t="n">
+      <c r="LA16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LB16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="LC16" t="n">
         <v>56</v>
       </c>
     </row>
@@ -16480,7 +16576,13 @@
       <c r="KZ17" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LA17" t="n">
+      <c r="LA17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LB17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="LC17" t="n">
         <v>44</v>
       </c>
     </row>
@@ -17423,7 +17525,13 @@
       <c r="KZ18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LA18" t="n">
+      <c r="LA18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB18" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LC18" t="n">
         <v>17</v>
       </c>
     </row>
@@ -18366,7 +18474,13 @@
       <c r="KZ19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LA19" t="n">
+      <c r="LA19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LB19" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LC19" t="n">
         <v>18</v>
       </c>
     </row>
@@ -19309,7 +19423,13 @@
       <c r="KZ20" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LA20" t="n">
+      <c r="LA20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LB20" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="LC20" t="n">
         <v>20</v>
       </c>
     </row>
@@ -20252,7 +20372,13 @@
       <c r="KZ21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LA21" t="n">
+      <c r="LA21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB21" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LC21" t="n">
         <v>14</v>
       </c>
     </row>
@@ -21195,7 +21321,13 @@
       <c r="KZ22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LA22" t="n">
+      <c r="LA22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LB22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="LC22" t="n">
         <v>11</v>
       </c>
     </row>
@@ -22138,7 +22270,13 @@
       <c r="KZ23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LA23" t="n">
+      <c r="LA23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -23081,7 +23219,13 @@
       <c r="KZ24" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="LA24" t="n">
+      <c r="LA24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LB24" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LC24" t="n">
         <v>33</v>
       </c>
     </row>
@@ -24024,7 +24168,13 @@
       <c r="KZ25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="LA25" t="n">
+      <c r="LA25" s="2" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="LB25" s="2" t="n">
+        <v>60.6</v>
+      </c>
+      <c r="LC25" t="n">
         <v>60.6</v>
       </c>
     </row>
@@ -24967,7 +25117,13 @@
       <c r="KZ26" s="2" t="n">
         <v>20.06</v>
       </c>
-      <c r="LA26" t="n">
+      <c r="LA26" s="2" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="LB26" s="2" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="LC26" t="n">
         <v>19.75</v>
       </c>
     </row>
@@ -25910,7 +26066,13 @@
       <c r="KZ27" s="2" t="n">
         <v>12.03</v>
       </c>
-      <c r="LA27" t="n">
+      <c r="LA27" s="2" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="LB27" s="2" t="n">
+        <v>11.97</v>
+      </c>
+      <c r="LC27" t="n">
         <v>11.97</v>
       </c>
     </row>
@@ -26853,7 +27015,13 @@
       <c r="KZ28" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LA28" t="n">
+      <c r="LA28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LB28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LC28" t="n">
         <v>33</v>
       </c>
     </row>
@@ -27796,7 +27964,13 @@
       <c r="KZ29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="LA29" t="n">
+      <c r="LA29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LB29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LC29" t="n">
         <v>54</v>
       </c>
     </row>
@@ -28739,7 +28913,13 @@
       <c r="KZ30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LA30" t="n">
+      <c r="LA30" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LB30" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LC30" t="n">
         <v>23</v>
       </c>
     </row>
@@ -29682,7 +29862,13 @@
       <c r="KZ31" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="LA31" t="n">
+      <c r="LA31" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="LB31" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="LC31" t="n">
         <v>63</v>
       </c>
     </row>
@@ -30625,7 +30811,13 @@
       <c r="KZ32" s="2" t="n">
         <v>1.97</v>
       </c>
-      <c r="LA32" t="n">
+      <c r="LA32" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LB32" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="LC32" t="n">
         <v>1.91</v>
       </c>
     </row>
@@ -31568,7 +31760,13 @@
       <c r="KZ33" s="2" t="n">
         <v>3.28</v>
       </c>
-      <c r="LA33" t="n">
+      <c r="LA33" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="LB33" s="2" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="LC33" t="n">
         <v>3.15</v>
       </c>
     </row>
@@ -32511,7 +32709,13 @@
       <c r="KZ34" s="2" t="n">
         <v>47.5</v>
       </c>
-      <c r="LA34" t="n">
+      <c r="LA34" s="2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="LB34" s="2" t="n">
+        <v>49.2</v>
+      </c>
+      <c r="LC34" t="n">
         <v>49.2</v>
       </c>
     </row>
@@ -33454,7 +33658,13 @@
       <c r="KZ35" s="2" t="n">
         <v>30.5</v>
       </c>
-      <c r="LA35" t="n">
+      <c r="LA35" s="2" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="LB35" s="2" t="n">
+        <v>31.7</v>
+      </c>
+      <c r="LC35" t="n">
         <v>31.7</v>
       </c>
     </row>
@@ -34397,7 +34607,13 @@
       <c r="KZ36" s="2" t="n">
         <v>188.9</v>
       </c>
-      <c r="LA36" t="n">
+      <c r="LA36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="LB36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="LC36" t="n">
         <v>188.5</v>
       </c>
     </row>
@@ -35340,7 +35556,13 @@
       <c r="KZ37" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="LA37" t="n">
+      <c r="LA37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="LB37" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="LC37" t="n">
         <v>88.2</v>
       </c>
     </row>
@@ -36283,7 +36505,13 @@
       <c r="KZ38" s="2" t="n">
         <v>28.33</v>
       </c>
-      <c r="LA38" t="n">
+      <c r="LA38" s="2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="LB38" s="2" t="n">
+        <v>28.58</v>
+      </c>
+      <c r="LC38" t="n">
         <v>28.58</v>
       </c>
     </row>
@@ -37226,7 +37454,13 @@
       <c r="KZ39" s="2" t="n">
         <v>163.1</v>
       </c>
-      <c r="LA39" t="n">
+      <c r="LA39" s="2" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="LB39" s="2" t="n">
+        <v>167.6</v>
+      </c>
+      <c r="LC39" t="n">
         <v>167.6</v>
       </c>
     </row>
@@ -38169,7 +38403,13 @@
       <c r="KZ40" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LA40" t="n">
+      <c r="LA40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LB40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="LC40" t="n">
         <v>2</v>
       </c>
     </row>
@@ -39112,7 +39352,13 @@
       <c r="KZ41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LA41" t="n">
+      <c r="LA41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -40055,7 +40301,13 @@
       <c r="KZ42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LA42" t="n">
+      <c r="LA42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB42" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC42" t="n">
         <v>3</v>
       </c>
     </row>
@@ -40998,7 +41250,13 @@
       <c r="KZ43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LA43" t="n">
+      <c r="LA43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LB43" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="LC43" t="n">
         <v>13</v>
       </c>
     </row>
@@ -41941,7 +42199,13 @@
       <c r="KZ44" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="LA44" t="n">
+      <c r="LA44" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="LB44" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="LC44" t="n">
         <v>151</v>
       </c>
     </row>
@@ -42884,7 +43148,13 @@
       <c r="KZ45" s="2" t="n">
         <v>230</v>
       </c>
-      <c r="LA45" t="n">
+      <c r="LA45" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="LB45" s="2" t="n">
+        <v>253</v>
+      </c>
+      <c r="LC45" t="n">
         <v>253</v>
       </c>
     </row>
@@ -43827,7 +44097,13 @@
       <c r="KZ46" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="LA46" t="n">
+      <c r="LA46" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LB46" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="LC46" t="n">
         <v>296</v>
       </c>
     </row>
@@ -44770,7 +45046,13 @@
       <c r="KZ47" s="2" t="n">
         <v>75.90000000000001</v>
       </c>
-      <c r="LA47" t="n">
+      <c r="LA47" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="LB47" s="2" t="n">
+        <v>74.90000000000001</v>
+      </c>
+      <c r="LC47" t="n">
         <v>74.90000000000001</v>
       </c>
     </row>
@@ -45713,7 +45995,13 @@
       <c r="KZ48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="LA48" t="n">
+      <c r="LA48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LB48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LC48" t="n">
         <v>54</v>
       </c>
     </row>
@@ -46656,7 +46944,13 @@
       <c r="KZ49" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LA49" t="n">
+      <c r="LA49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB49" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC49" t="n">
         <v>6</v>
       </c>
     </row>
@@ -47599,7 +47893,13 @@
       <c r="KZ50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LA50" t="n">
+      <c r="LA50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB50" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LC50" t="n">
         <v>17</v>
       </c>
     </row>
@@ -48542,7 +48842,13 @@
       <c r="KZ51" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LA51" t="n">
+      <c r="LA51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LB51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="LC51" t="n">
         <v>33</v>
       </c>
     </row>
@@ -49485,7 +49791,13 @@
       <c r="KZ52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LA52" t="n">
+      <c r="LA52" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LB52" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="LC52" t="n">
         <v>23</v>
       </c>
     </row>
@@ -50428,7 +50740,13 @@
       <c r="KZ53" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="LA53" t="n">
+      <c r="LA53" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LB53" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LC53" t="n">
         <v>43</v>
       </c>
     </row>
@@ -51371,7 +51689,13 @@
       <c r="KZ54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LA54" t="n">
+      <c r="LA54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -52314,7 +52638,13 @@
       <c r="KZ55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LA55" t="n">
+      <c r="LA55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB55" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LC55" t="n">
         <v>14</v>
       </c>
     </row>
@@ -53257,7 +53587,13 @@
       <c r="KZ56" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="LA56" t="n">
+      <c r="LA56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="LB56" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="LC56" t="n">
         <v>70</v>
       </c>
     </row>
@@ -54200,7 +54536,13 @@
       <c r="KZ57" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="LA57" t="n">
+      <c r="LA57" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="LB57" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="LC57" t="n">
         <v>166</v>
       </c>
     </row>
@@ -55143,7 +55485,13 @@
       <c r="KZ58" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="LA58" t="n">
+      <c r="LA58" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="LB58" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="LC58" t="n">
         <v>138</v>
       </c>
     </row>
@@ -56086,7 +56434,13 @@
       <c r="KZ59" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="LA59" t="n">
+      <c r="LA59" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="LB59" s="2" t="n">
+        <v>304</v>
+      </c>
+      <c r="LC59" t="n">
         <v>304</v>
       </c>
     </row>
@@ -57029,7 +57383,13 @@
       <c r="KZ60" s="2" t="n">
         <v>1.99</v>
       </c>
-      <c r="LA60" t="n">
+      <c r="LA60" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="LB60" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="LC60" t="n">
         <v>1.2</v>
       </c>
     </row>
@@ -57972,7 +58332,13 @@
       <c r="KZ61" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="LA61" t="n">
+      <c r="LA61" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="LB61" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="LC61" t="n">
         <v>62</v>
       </c>
     </row>
@@ -58915,7 +59281,13 @@
       <c r="KZ62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="LA62" t="n">
+      <c r="LA62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="LB62" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="LC62" t="n">
         <v>65</v>
       </c>
     </row>
@@ -59858,7 +60230,13 @@
       <c r="KZ63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LA63" t="n">
+      <c r="LA63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LB63" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LC63" t="n">
         <v>24</v>
       </c>
     </row>
@@ -60801,7 +61179,13 @@
       <c r="KZ64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LA64" t="n">
+      <c r="LA64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LB64" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="LC64" t="n">
         <v>18</v>
       </c>
     </row>
@@ -61744,7 +62128,13 @@
       <c r="KZ65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LA65" t="n">
+      <c r="LA65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LB65" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="LC65" t="n">
         <v>17</v>
       </c>
     </row>
@@ -62687,7 +63077,13 @@
       <c r="KZ66" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA66" t="n">
+      <c r="LA66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LB66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="LC66" t="n">
         <v>8</v>
       </c>
     </row>
@@ -63630,7 +64026,13 @@
       <c r="KZ67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA67" t="n">
+      <c r="LA67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB67" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC67" t="n">
         <v>5</v>
       </c>
     </row>
@@ -64573,7 +64975,13 @@
       <c r="KZ68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA68" t="n">
+      <c r="LA68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LB68" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="LC68" t="n">
         <v>3</v>
       </c>
     </row>
@@ -65516,7 +65924,13 @@
       <c r="KZ69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LA69" t="n">
+      <c r="LA69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LB69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="LC69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -66459,7 +66873,13 @@
       <c r="KZ70" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LA70" t="n">
+      <c r="LA70" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LB70" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="LC70" t="n">
         <v>12</v>
       </c>
     </row>
@@ -67402,7 +67822,13 @@
       <c r="KZ71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="LA71" t="n">
+      <c r="LA71" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="LB71" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="LC71" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -68345,7 +68771,13 @@
       <c r="KZ72" s="2" t="n">
         <v>42.29</v>
       </c>
-      <c r="LA72" t="n">
+      <c r="LA72" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LB72" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LC72" t="n">
         <v>38</v>
       </c>
     </row>
@@ -69288,7 +69720,13 @@
       <c r="KZ73" s="2" t="n">
         <v>21.14</v>
       </c>
-      <c r="LA73" t="n">
+      <c r="LA73" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LB73" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="LC73" t="n">
         <v>25.33</v>
       </c>
     </row>
@@ -70231,7 +70669,13 @@
       <c r="KZ74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LA74" t="n">
+      <c r="LA74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LB74" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LC74" t="n">
         <v>37</v>
       </c>
     </row>
@@ -71174,7 +71618,13 @@
       <c r="KZ75" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="LA75" t="n">
+      <c r="LA75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LB75" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LC75" t="n">
         <v>54</v>
       </c>
     </row>
@@ -72117,7 +72567,13 @@
       <c r="KZ76" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LA76" t="n">
+      <c r="LA76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LB76" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LC76" t="n">
         <v>45</v>
       </c>
     </row>
@@ -73060,7 +73516,13 @@
       <c r="KZ77" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="LA77" t="n">
+      <c r="LA77" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LB77" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="LC77" t="n">
         <v>32</v>
       </c>
     </row>
@@ -74003,7 +74465,13 @@
       <c r="KZ78" s="2" t="n">
         <v>3.29</v>
       </c>
-      <c r="LA78" t="n">
+      <c r="LA78" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="LB78" s="2" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="LC78" t="n">
         <v>2.67</v>
       </c>
     </row>
@@ -74946,7 +75414,13 @@
       <c r="KZ79" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="LA79" t="n">
+      <c r="LA79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB79" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC79" t="n">
         <v>4</v>
       </c>
     </row>
@@ -75889,7 +76363,13 @@
       <c r="KZ80" s="2" t="n">
         <v>30.4</v>
       </c>
-      <c r="LA80" t="n">
+      <c r="LA80" s="2" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="LB80" s="2" t="n">
+        <v>34.4</v>
+      </c>
+      <c r="LC80" t="n">
         <v>34.4</v>
       </c>
     </row>
@@ -76832,7 +77312,13 @@
       <c r="KZ81" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="LA81" t="n">
+      <c r="LA81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LB81" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="LC81" t="n">
         <v>25</v>
       </c>
     </row>
@@ -77775,7 +78261,13 @@
       <c r="KZ82" s="2" t="n">
         <v>187.9</v>
       </c>
-      <c r="LA82" t="n">
+      <c r="LA82" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="LB82" s="2" t="n">
+        <v>187.6</v>
+      </c>
+      <c r="LC82" t="n">
         <v>187.6</v>
       </c>
     </row>
@@ -78718,7 +79210,13 @@
       <c r="KZ83" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="LA83" t="n">
+      <c r="LA83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="LB83" s="2" t="n">
+        <v>86.3</v>
+      </c>
+      <c r="LC83" t="n">
         <v>86.3</v>
       </c>
     </row>
@@ -79661,7 +80159,13 @@
       <c r="KZ84" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="LA84" t="n">
+      <c r="LA84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="LB84" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="LC84" t="n">
         <v>25.8</v>
       </c>
     </row>
@@ -80604,7 +81108,13 @@
       <c r="KZ85" s="2" t="n">
         <v>116.6</v>
       </c>
-      <c r="LA85" t="n">
+      <c r="LA85" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="LB85" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="LC85" t="n">
         <v>116</v>
       </c>
     </row>
@@ -81547,7 +82057,13 @@
       <c r="KZ86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LA86" t="n">
+      <c r="LA86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -82490,7 +83006,13 @@
       <c r="KZ87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LA87" t="n">
+      <c r="LA87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LB87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LC87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -83433,7 +83955,13 @@
       <c r="KZ88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LA88" t="n">
+      <c r="LA88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB88" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC88" t="n">
         <v>5</v>
       </c>
     </row>
@@ -84376,7 +84904,13 @@
       <c r="KZ89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LA89" t="n">
+      <c r="LA89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LB89" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="LC89" t="n">
         <v>6</v>
       </c>
     </row>
@@ -85319,7 +85853,13 @@
       <c r="KZ90" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="LA90" t="n">
+      <c r="LA90" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="LB90" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="LC90" t="n">
         <v>110</v>
       </c>
     </row>
@@ -86262,7 +86802,13 @@
       <c r="KZ91" s="2" t="n">
         <v>177</v>
       </c>
-      <c r="LA91" t="n">
+      <c r="LA91" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="LB91" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="LC91" t="n">
         <v>189</v>
       </c>
     </row>
@@ -87205,7 +87751,13 @@
       <c r="KZ92" s="2" t="n">
         <v>200</v>
       </c>
-      <c r="LA92" t="n">
+      <c r="LA92" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="LB92" s="2" t="n">
+        <v>232</v>
+      </c>
+      <c r="LC92" t="n">
         <v>232</v>
       </c>
     </row>
@@ -88148,7 +88700,13 @@
       <c r="KZ93" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="LA93" t="n">
+      <c r="LA93" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="LB93" s="2" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="LC93" t="n">
         <v>76.3</v>
       </c>
     </row>
@@ -89091,7 +89649,13 @@
       <c r="KZ94" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="LA94" t="n">
+      <c r="LA94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LB94" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="LC94" t="n">
         <v>54</v>
       </c>
     </row>
@@ -90034,7 +90598,13 @@
       <c r="KZ95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LA95" t="n">
+      <c r="LA95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB95" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC95" t="n">
         <v>5</v>
       </c>
     </row>
@@ -90977,7 +91547,13 @@
       <c r="KZ96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LA96" t="n">
+      <c r="LA96" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LB96" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="LC96" t="n">
         <v>4</v>
       </c>
     </row>
@@ -91920,7 +92496,13 @@
       <c r="KZ97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LA97" t="n">
+      <c r="LA97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LB97" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="LC97" t="n">
         <v>37</v>
       </c>
     </row>
@@ -92863,7 +93445,13 @@
       <c r="KZ98" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="LA98" t="n">
+      <c r="LA98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LB98" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="LC98" t="n">
         <v>45</v>
       </c>
     </row>
@@ -93806,7 +94394,13 @@
       <c r="KZ99" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LA99" t="n">
+      <c r="LA99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LB99" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="LC99" t="n">
         <v>49</v>
       </c>
     </row>
@@ -94749,7 +95343,13 @@
       <c r="KZ100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LA100" t="n">
+      <c r="LA100" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LB100" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="LC100" t="n">
         <v>14</v>
       </c>
     </row>
@@ -95692,7 +96292,13 @@
       <c r="KZ101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LA101" t="n">
+      <c r="LA101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LB101" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LC101" t="n">
         <v>5</v>
       </c>
     </row>
@@ -96635,7 +97241,13 @@
       <c r="KZ102" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="LA102" t="n">
+      <c r="LA102" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="LB102" s="2" t="n">
+        <v>62.5</v>
+      </c>
+      <c r="LC102" t="n">
         <v>62.5</v>
       </c>
     </row>

--- a/AFL_ML/Data/Geelong_stats.xlsx
+++ b/AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LC102"/>
+  <dimension ref="A1:LD102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1398,8 +1398,11 @@
       <c r="LB1" s="2" t="n">
         <v>10750</v>
       </c>
-      <c r="LC1" t="n">
+      <c r="LC1" s="2" t="n">
         <v>10750</v>
+      </c>
+      <c r="LD1" t="n">
+        <v>10752</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2347,8 +2350,11 @@
       <c r="LB2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="LC2" t="n">
+      <c r="LC2" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="LD2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="1">
@@ -3296,8 +3302,11 @@
       <c r="LB3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LC3" t="n">
+      <c r="LC3" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="LD3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4245,7 +4254,10 @@
       <c r="LB4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LC4" t="n">
+      <c r="LC4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LD4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5194,8 +5206,11 @@
       <c r="LB5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LC5" t="n">
+      <c r="LC5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LD5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -6143,8 +6158,11 @@
       <c r="LB6" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="LC6" t="n">
+      <c r="LC6" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="LD6" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -7092,8 +7110,11 @@
       <c r="LB7" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="LC7" t="n">
+      <c r="LC7" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LD7" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -8041,8 +8062,11 @@
       <c r="LB8" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="LC8" t="n">
+      <c r="LC8" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="LD8" t="n">
+        <v>-22</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -8990,8 +9014,11 @@
       <c r="LB9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC9" t="n">
+      <c r="LC9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LD9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -9939,8 +9966,11 @@
       <c r="LB10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LC10" t="n">
+      <c r="LC10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LD10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10888,8 +10918,11 @@
       <c r="LB11" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="LC11" t="n">
+      <c r="LC11" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="LD11" t="n">
+        <v>182</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11837,8 +11870,11 @@
       <c r="LB12" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="LC12" t="n">
+      <c r="LC12" s="2" t="n">
         <v>142</v>
+      </c>
+      <c r="LD12" t="n">
+        <v>133</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12786,8 +12822,11 @@
       <c r="LB13" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="LC13" t="n">
+      <c r="LC13" s="2" t="n">
         <v>395</v>
+      </c>
+      <c r="LD13" t="n">
+        <v>315</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13735,8 +13774,11 @@
       <c r="LB14" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="LC14" t="n">
+      <c r="LC14" s="2" t="n">
         <v>1.78</v>
+      </c>
+      <c r="LD14" t="n">
+        <v>1.37</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14684,8 +14726,11 @@
       <c r="LB15" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="LC15" t="n">
+      <c r="LC15" s="2" t="n">
         <v>124</v>
+      </c>
+      <c r="LD15" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15633,8 +15678,11 @@
       <c r="LB16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LC16" t="n">
+      <c r="LC16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LD16" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16582,8 +16630,11 @@
       <c r="LB17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LC17" t="n">
+      <c r="LC17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LD17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -17531,8 +17582,11 @@
       <c r="LB18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LC18" t="n">
+      <c r="LC18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LD18" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -18480,8 +18534,11 @@
       <c r="LB19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LC19" t="n">
+      <c r="LC19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LD19" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -19429,8 +19486,11 @@
       <c r="LB20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LC20" t="n">
+      <c r="LC20" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="LD20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -20378,8 +20438,11 @@
       <c r="LB21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LC21" t="n">
+      <c r="LC21" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LD21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -21327,8 +21390,11 @@
       <c r="LB22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LC22" t="n">
+      <c r="LC22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="LD22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -22276,8 +22342,11 @@
       <c r="LB23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC23" t="n">
+      <c r="LC23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LD23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -23225,8 +23294,11 @@
       <c r="LB24" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LC24" t="n">
+      <c r="LC24" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LD24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -24174,8 +24246,11 @@
       <c r="LB25" s="2" t="n">
         <v>60.6</v>
       </c>
-      <c r="LC25" t="n">
+      <c r="LC25" s="2" t="n">
         <v>60.6</v>
+      </c>
+      <c r="LD25" t="n">
+        <v>69.59999999999999</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -25123,8 +25198,11 @@
       <c r="LB26" s="2" t="n">
         <v>19.75</v>
       </c>
-      <c r="LC26" t="n">
+      <c r="LC26" s="2" t="n">
         <v>19.75</v>
+      </c>
+      <c r="LD26" t="n">
+        <v>19.69</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -26072,8 +26150,11 @@
       <c r="LB27" s="2" t="n">
         <v>11.97</v>
       </c>
-      <c r="LC27" t="n">
+      <c r="LC27" s="2" t="n">
         <v>11.97</v>
+      </c>
+      <c r="LD27" t="n">
+        <v>13.7</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -27021,8 +27102,11 @@
       <c r="LB28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LC28" t="n">
+      <c r="LC28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LD28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -27970,8 +28054,11 @@
       <c r="LB29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LC29" t="n">
+      <c r="LC29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LD29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -28919,8 +29006,11 @@
       <c r="LB30" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LC30" t="n">
+      <c r="LC30" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -29868,8 +29958,11 @@
       <c r="LB31" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="LC31" t="n">
+      <c r="LC31" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="LD31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -30817,8 +30910,11 @@
       <c r="LB32" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="LC32" t="n">
+      <c r="LC32" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="LD32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -31766,8 +31862,11 @@
       <c r="LB33" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="LC33" t="n">
+      <c r="LC33" s="2" t="n">
         <v>3.15</v>
+      </c>
+      <c r="LD33" t="n">
+        <v>2.88</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -32715,8 +32814,11 @@
       <c r="LB34" s="2" t="n">
         <v>49.2</v>
       </c>
-      <c r="LC34" t="n">
+      <c r="LC34" s="2" t="n">
         <v>49.2</v>
+      </c>
+      <c r="LD34" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -33664,8 +33766,11 @@
       <c r="LB35" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="LC35" t="n">
+      <c r="LC35" s="2" t="n">
         <v>31.7</v>
+      </c>
+      <c r="LD35" t="n">
+        <v>34.8</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -34613,8 +34718,11 @@
       <c r="LB36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="LC36" t="n">
+      <c r="LC36" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="LD36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -35562,8 +35670,11 @@
       <c r="LB37" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="LC37" t="n">
+      <c r="LC37" s="2" t="n">
         <v>88.2</v>
+      </c>
+      <c r="LD37" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -36511,8 +36622,11 @@
       <c r="LB38" s="2" t="n">
         <v>28.58</v>
       </c>
-      <c r="LC38" t="n">
+      <c r="LC38" s="2" t="n">
         <v>28.58</v>
+      </c>
+      <c r="LD38" t="n">
+        <v>27.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -37460,8 +37574,11 @@
       <c r="LB39" s="2" t="n">
         <v>167.6</v>
       </c>
-      <c r="LC39" t="n">
+      <c r="LC39" s="2" t="n">
         <v>167.6</v>
+      </c>
+      <c r="LD39" t="n">
+        <v>136.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -38409,8 +38526,11 @@
       <c r="LB40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LC40" t="n">
+      <c r="LC40" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LD40" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -39358,8 +39478,11 @@
       <c r="LB41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC41" t="n">
+      <c r="LC41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -40307,8 +40430,11 @@
       <c r="LB42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC42" t="n">
+      <c r="LC42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -41256,8 +41382,11 @@
       <c r="LB43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LC43" t="n">
+      <c r="LC43" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LD43" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -42205,8 +42334,11 @@
       <c r="LB44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="LC44" t="n">
+      <c r="LC44" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="LD44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -43154,8 +43286,11 @@
       <c r="LB45" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="LC45" t="n">
+      <c r="LC45" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="LD45" t="n">
+        <v>170</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -44103,8 +44238,11 @@
       <c r="LB46" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="LC46" t="n">
+      <c r="LC46" s="2" t="n">
         <v>296</v>
+      </c>
+      <c r="LD46" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -45052,8 +45190,11 @@
       <c r="LB47" s="2" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="LC47" t="n">
+      <c r="LC47" s="2" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="LD47" t="n">
+        <v>70.2</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -46001,8 +46142,11 @@
       <c r="LB48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LC48" t="n">
+      <c r="LC48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LD48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -46950,8 +47094,11 @@
       <c r="LB49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LC49" t="n">
+      <c r="LC49" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -47899,8 +48046,11 @@
       <c r="LB50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LC50" t="n">
+      <c r="LC50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LD50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -48848,8 +48998,11 @@
       <c r="LB51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LC51" t="n">
+      <c r="LC51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LD51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -49797,8 +49950,11 @@
       <c r="LB52" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LC52" t="n">
+      <c r="LC52" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LD52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -50746,7 +50902,10 @@
       <c r="LB53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LC53" t="n">
+      <c r="LC53" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="LD53" t="n">
         <v>43</v>
       </c>
     </row>
@@ -51695,8 +51854,11 @@
       <c r="LB54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC54" t="n">
+      <c r="LC54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -52644,8 +52806,11 @@
       <c r="LB55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LC55" t="n">
+      <c r="LC55" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LD55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -53593,8 +53758,11 @@
       <c r="LB56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="LC56" t="n">
+      <c r="LC56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="LD56" t="n">
+        <v>56.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -54542,8 +54710,11 @@
       <c r="LB57" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="LC57" t="n">
+      <c r="LC57" s="2" t="n">
         <v>166</v>
+      </c>
+      <c r="LD57" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -55491,8 +55662,11 @@
       <c r="LB58" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="LC58" t="n">
+      <c r="LC58" s="2" t="n">
         <v>138</v>
+      </c>
+      <c r="LD58" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -56440,8 +56614,11 @@
       <c r="LB59" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="LC59" t="n">
+      <c r="LC59" s="2" t="n">
         <v>304</v>
+      </c>
+      <c r="LD59" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -57389,8 +57566,11 @@
       <c r="LB60" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="LC60" t="n">
+      <c r="LC60" s="2" t="n">
         <v>1.2</v>
+      </c>
+      <c r="LD60" t="n">
+        <v>1.6</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -58338,8 +58518,11 @@
       <c r="LB61" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="LC61" t="n">
+      <c r="LC61" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="LD61" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -59287,8 +59470,11 @@
       <c r="LB62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="LC62" t="n">
+      <c r="LC62" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="LD62" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -60236,8 +60422,11 @@
       <c r="LB63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LC63" t="n">
+      <c r="LC63" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="LD63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -61185,8 +61374,11 @@
       <c r="LB64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LC64" t="n">
+      <c r="LC64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LD64" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -62134,8 +62326,11 @@
       <c r="LB65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LC65" t="n">
+      <c r="LC65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="LD65" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -63083,8 +63278,11 @@
       <c r="LB66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LC66" t="n">
+      <c r="LC66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LD66" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -64032,8 +64230,11 @@
       <c r="LB67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC67" t="n">
+      <c r="LC67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD67" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -64981,8 +65182,11 @@
       <c r="LB68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LC68" t="n">
+      <c r="LC68" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LD68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -65930,8 +66134,11 @@
       <c r="LB69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LC69" t="n">
+      <c r="LC69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LD69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -66879,8 +67086,11 @@
       <c r="LB70" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LC70" t="n">
+      <c r="LC70" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LD70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -67828,8 +68038,11 @@
       <c r="LB71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="LC71" t="n">
+      <c r="LC71" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="LD71" t="n">
+        <v>63.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -68777,8 +68990,11 @@
       <c r="LB72" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LC72" t="n">
+      <c r="LC72" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LD72" t="n">
+        <v>19.58</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -69726,8 +69942,11 @@
       <c r="LB73" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="LC73" t="n">
+      <c r="LC73" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="LD73" t="n">
+        <v>12.4</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -70675,8 +70894,11 @@
       <c r="LB74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LC74" t="n">
+      <c r="LC74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LD74" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -71624,8 +71846,11 @@
       <c r="LB75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LC75" t="n">
+      <c r="LC75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LD75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -72573,8 +72798,11 @@
       <c r="LB76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LC76" t="n">
+      <c r="LC76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LD76" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -73522,8 +73750,11 @@
       <c r="LB77" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="LC77" t="n">
+      <c r="LC77" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="LD77" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -74471,8 +74702,11 @@
       <c r="LB78" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="LC78" t="n">
+      <c r="LC78" s="2" t="n">
         <v>2.67</v>
+      </c>
+      <c r="LD78" t="n">
+        <v>2.07</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -75420,8 +75654,11 @@
       <c r="LB79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC79" t="n">
+      <c r="LC79" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD79" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -76369,8 +76606,11 @@
       <c r="LB80" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="LC80" t="n">
+      <c r="LC80" s="2" t="n">
         <v>34.4</v>
+      </c>
+      <c r="LD80" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -77318,8 +77558,11 @@
       <c r="LB81" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="LC81" t="n">
+      <c r="LC81" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="LD81" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -78267,8 +78510,11 @@
       <c r="LB82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="LC82" t="n">
+      <c r="LC82" s="2" t="n">
         <v>187.6</v>
+      </c>
+      <c r="LD82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -79216,8 +79462,11 @@
       <c r="LB83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="LC83" t="n">
+      <c r="LC83" s="2" t="n">
         <v>86.3</v>
+      </c>
+      <c r="LD83" t="n">
+        <v>87.90000000000001</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -80165,8 +80414,11 @@
       <c r="LB84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="LC84" t="n">
+      <c r="LC84" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="LD84" t="n">
+        <v>27.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -81114,8 +81366,11 @@
       <c r="LB85" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="LC85" t="n">
+      <c r="LC85" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="LD85" t="n">
+        <v>128.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -82063,7 +82318,10 @@
       <c r="LB86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC86" t="n">
+      <c r="LC86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="LD86" t="n">
         <v>5</v>
       </c>
     </row>
@@ -83012,8 +83270,11 @@
       <c r="LB87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LC87" t="n">
+      <c r="LC87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LD87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -83961,8 +84222,11 @@
       <c r="LB88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC88" t="n">
+      <c r="LC88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -84910,8 +85174,11 @@
       <c r="LB89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LC89" t="n">
+      <c r="LC89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LD89" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -85859,8 +86126,11 @@
       <c r="LB90" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="LC90" t="n">
+      <c r="LC90" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="LD90" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -86808,8 +87078,11 @@
       <c r="LB91" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="LC91" t="n">
+      <c r="LC91" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="LD91" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -87757,8 +88030,11 @@
       <c r="LB92" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="LC92" t="n">
+      <c r="LC92" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="LD92" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -88706,8 +88982,11 @@
       <c r="LB93" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="LC93" t="n">
+      <c r="LC93" s="2" t="n">
         <v>76.3</v>
+      </c>
+      <c r="LD93" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -89655,8 +89934,11 @@
       <c r="LB94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LC94" t="n">
+      <c r="LC94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LD94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -90604,8 +90886,11 @@
       <c r="LB95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC95" t="n">
+      <c r="LC95" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD95" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -91553,8 +91838,11 @@
       <c r="LB96" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LC96" t="n">
+      <c r="LC96" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LD96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -92502,8 +92790,11 @@
       <c r="LB97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LC97" t="n">
+      <c r="LC97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LD97" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -93451,8 +93742,11 @@
       <c r="LB98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LC98" t="n">
+      <c r="LC98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LD98" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -94400,8 +94694,11 @@
       <c r="LB99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="LC99" t="n">
+      <c r="LC99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LD99" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -95349,8 +95646,11 @@
       <c r="LB100" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LC100" t="n">
+      <c r="LC100" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LD100" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -96298,8 +96598,11 @@
       <c r="LB101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LC101" t="n">
+      <c r="LC101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LD101" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -97247,8 +97550,11 @@
       <c r="LB102" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="LC102" t="n">
+      <c r="LC102" s="2" t="n">
         <v>62.5</v>
+      </c>
+      <c r="LD102" t="n">
+        <v>94.7</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Geelong_stats.xlsx
+++ b/AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LD102"/>
+  <dimension ref="A1:LE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1401,8 +1401,11 @@
       <c r="LC1" s="2" t="n">
         <v>10750</v>
       </c>
-      <c r="LD1" t="n">
+      <c r="LD1" s="2" t="n">
         <v>10752</v>
+      </c>
+      <c r="LE1" t="n">
+        <v>10760</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2353,7 +2356,10 @@
       <c r="LC2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="LD2" t="n">
+      <c r="LD2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LE2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3305,8 +3311,11 @@
       <c r="LC3" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="LD3" t="n">
+      <c r="LD3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LE3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4257,8 +4266,11 @@
       <c r="LC4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LD4" t="n">
+      <c r="LD4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LE4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -5209,8 +5221,11 @@
       <c r="LC5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LD5" t="n">
+      <c r="LD5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LE5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -6161,8 +6176,11 @@
       <c r="LC6" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="LD6" t="n">
+      <c r="LD6" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="LE6" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -7113,8 +7131,11 @@
       <c r="LC7" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="LD7" t="n">
+      <c r="LD7" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="LE7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -8065,8 +8086,11 @@
       <c r="LC8" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="LD8" t="n">
+      <c r="LD8" s="2" t="n">
         <v>-22</v>
+      </c>
+      <c r="LE8" t="n">
+        <v>-8</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -9017,7 +9041,10 @@
       <c r="LC9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LD9" t="n">
+      <c r="LD9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LE9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9969,8 +9996,11 @@
       <c r="LC10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="LD10" t="n">
+      <c r="LD10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LE10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10921,8 +10951,11 @@
       <c r="LC11" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="LD11" t="n">
+      <c r="LD11" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="LE11" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11873,8 +11906,11 @@
       <c r="LC12" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="LD12" t="n">
+      <c r="LD12" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="LE12" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12825,8 +12861,11 @@
       <c r="LC13" s="2" t="n">
         <v>395</v>
       </c>
-      <c r="LD13" t="n">
+      <c r="LD13" s="2" t="n">
         <v>315</v>
+      </c>
+      <c r="LE13" t="n">
+        <v>328</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13777,8 +13816,11 @@
       <c r="LC14" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="LD14" t="n">
+      <c r="LD14" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="LE14" t="n">
+        <v>1.34</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14729,7 +14771,10 @@
       <c r="LC15" s="2" t="n">
         <v>124</v>
       </c>
-      <c r="LD15" t="n">
+      <c r="LD15" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="LE15" t="n">
         <v>69</v>
       </c>
     </row>
@@ -15681,8 +15726,11 @@
       <c r="LC16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LD16" t="n">
+      <c r="LD16" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LE16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16633,8 +16681,11 @@
       <c r="LC17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LD17" t="n">
+      <c r="LD17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="LE17" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -17585,8 +17636,11 @@
       <c r="LC18" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LD18" t="n">
+      <c r="LD18" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LE18" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -18537,7 +18591,10 @@
       <c r="LC19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LD19" t="n">
+      <c r="LD19" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LE19" t="n">
         <v>24</v>
       </c>
     </row>
@@ -19489,8 +19546,11 @@
       <c r="LC20" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="LD20" t="n">
+      <c r="LD20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LE20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -20441,8 +20501,11 @@
       <c r="LC21" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LD21" t="n">
+      <c r="LD21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LE21" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -21393,7 +21456,10 @@
       <c r="LC22" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LD22" t="n">
+      <c r="LD22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LE22" t="n">
         <v>7</v>
       </c>
     </row>
@@ -22345,8 +22411,11 @@
       <c r="LC23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LD23" t="n">
+      <c r="LD23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LE23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -23297,8 +23366,11 @@
       <c r="LC24" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LD24" t="n">
+      <c r="LD24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LE24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -24249,8 +24321,11 @@
       <c r="LC25" s="2" t="n">
         <v>60.6</v>
       </c>
-      <c r="LD25" t="n">
+      <c r="LD25" s="2" t="n">
         <v>69.59999999999999</v>
+      </c>
+      <c r="LE25" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -25201,8 +25276,11 @@
       <c r="LC26" s="2" t="n">
         <v>19.75</v>
       </c>
-      <c r="LD26" t="n">
+      <c r="LD26" s="2" t="n">
         <v>19.69</v>
+      </c>
+      <c r="LE26" t="n">
+        <v>27.33</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -26153,8 +26231,11 @@
       <c r="LC27" s="2" t="n">
         <v>11.97</v>
       </c>
-      <c r="LD27" t="n">
+      <c r="LD27" s="2" t="n">
         <v>13.7</v>
+      </c>
+      <c r="LE27" t="n">
+        <v>14.91</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -27105,8 +27186,11 @@
       <c r="LC28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LD28" t="n">
+      <c r="LD28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LE28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -28057,8 +28141,11 @@
       <c r="LC29" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LD29" t="n">
+      <c r="LD29" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="LE29" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -29009,8 +29096,11 @@
       <c r="LC30" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LD30" t="n">
+      <c r="LD30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LE30" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -29961,8 +30051,11 @@
       <c r="LC31" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="LD31" t="n">
+      <c r="LD31" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LE31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -30913,8 +31006,11 @@
       <c r="LC32" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="LD32" t="n">
+      <c r="LD32" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LE32" t="n">
+        <v>2.45</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -31865,8 +31961,11 @@
       <c r="LC33" s="2" t="n">
         <v>3.15</v>
       </c>
-      <c r="LD33" t="n">
+      <c r="LD33" s="2" t="n">
         <v>2.88</v>
+      </c>
+      <c r="LE33" t="n">
+        <v>4.5</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -32817,8 +32916,11 @@
       <c r="LC34" s="2" t="n">
         <v>49.2</v>
       </c>
-      <c r="LD34" t="n">
+      <c r="LD34" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="LE34" t="n">
+        <v>35.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -33769,8 +33871,11 @@
       <c r="LC35" s="2" t="n">
         <v>31.7</v>
       </c>
-      <c r="LD35" t="n">
+      <c r="LD35" s="2" t="n">
         <v>34.8</v>
+      </c>
+      <c r="LE35" t="n">
+        <v>22.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -34721,8 +34826,11 @@
       <c r="LC36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="LD36" t="n">
+      <c r="LD36" s="2" t="n">
         <v>188.9</v>
+      </c>
+      <c r="LE36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -35673,8 +35781,11 @@
       <c r="LC37" s="2" t="n">
         <v>88.2</v>
       </c>
-      <c r="LD37" t="n">
+      <c r="LD37" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="LE37" t="n">
+        <v>88.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -36625,8 +36736,11 @@
       <c r="LC38" s="2" t="n">
         <v>28.58</v>
       </c>
-      <c r="LD38" t="n">
+      <c r="LD38" s="2" t="n">
         <v>27.66</v>
+      </c>
+      <c r="LE38" t="n">
+        <v>27.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -37577,8 +37691,11 @@
       <c r="LC39" s="2" t="n">
         <v>167.6</v>
       </c>
-      <c r="LD39" t="n">
+      <c r="LD39" s="2" t="n">
         <v>136.8</v>
+      </c>
+      <c r="LE39" t="n">
+        <v>131</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -38529,8 +38646,11 @@
       <c r="LC40" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LD40" t="n">
+      <c r="LD40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LE40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -39481,8 +39601,11 @@
       <c r="LC41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD41" t="n">
+      <c r="LD41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LE41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -40433,8 +40556,11 @@
       <c r="LC42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LD42" t="n">
+      <c r="LD42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LE42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -41385,7 +41511,10 @@
       <c r="LC43" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LD43" t="n">
+      <c r="LD43" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="LE43" t="n">
         <v>10</v>
       </c>
     </row>
@@ -42337,8 +42466,11 @@
       <c r="LC44" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="LD44" t="n">
+      <c r="LD44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="LE44" t="n">
+        <v>120</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -43289,8 +43421,11 @@
       <c r="LC45" s="2" t="n">
         <v>253</v>
       </c>
-      <c r="LD45" t="n">
+      <c r="LD45" s="2" t="n">
         <v>170</v>
+      </c>
+      <c r="LE45" t="n">
+        <v>197</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -44241,8 +44376,11 @@
       <c r="LC46" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="LD46" t="n">
+      <c r="LD46" s="2" t="n">
         <v>221</v>
+      </c>
+      <c r="LE46" t="n">
+        <v>225</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -45193,8 +45331,11 @@
       <c r="LC47" s="2" t="n">
         <v>74.90000000000001</v>
       </c>
-      <c r="LD47" t="n">
+      <c r="LD47" s="2" t="n">
         <v>70.2</v>
+      </c>
+      <c r="LE47" t="n">
+        <v>68.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -46145,8 +46286,11 @@
       <c r="LC48" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LD48" t="n">
+      <c r="LD48" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="LE48" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -47097,8 +47241,11 @@
       <c r="LC49" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LD49" t="n">
+      <c r="LD49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LE49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -48049,8 +48196,11 @@
       <c r="LC50" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LD50" t="n">
+      <c r="LD50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LE50" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -49001,8 +49151,11 @@
       <c r="LC51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="LD51" t="n">
+      <c r="LD51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="LE51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -49953,8 +50106,11 @@
       <c r="LC52" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="LD52" t="n">
+      <c r="LD52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LE52" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -50905,8 +51061,11 @@
       <c r="LC53" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="LD53" t="n">
+      <c r="LD53" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="LE53" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -51857,8 +52016,11 @@
       <c r="LC54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD54" t="n">
+      <c r="LD54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LE54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -52809,8 +52971,11 @@
       <c r="LC55" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LD55" t="n">
+      <c r="LD55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LE55" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -53761,8 +53926,11 @@
       <c r="LC56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="LD56" t="n">
+      <c r="LD56" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="LE56" t="n">
+        <v>91.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -54713,8 +54881,11 @@
       <c r="LC57" s="2" t="n">
         <v>166</v>
       </c>
-      <c r="LD57" t="n">
+      <c r="LD57" s="2" t="n">
         <v>229</v>
+      </c>
+      <c r="LE57" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -55665,8 +55836,11 @@
       <c r="LC58" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="LD58" t="n">
+      <c r="LD58" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="LE58" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -56617,8 +56791,11 @@
       <c r="LC59" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="LD59" t="n">
+      <c r="LD59" s="2" t="n">
         <v>372</v>
+      </c>
+      <c r="LE59" t="n">
+        <v>382</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -57569,8 +57746,11 @@
       <c r="LC60" s="2" t="n">
         <v>1.2</v>
       </c>
-      <c r="LD60" t="n">
+      <c r="LD60" s="2" t="n">
         <v>1.6</v>
+      </c>
+      <c r="LE60" t="n">
+        <v>1.83</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -58521,8 +58701,11 @@
       <c r="LC61" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="LD61" t="n">
+      <c r="LD61" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="LE61" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -59473,8 +59656,11 @@
       <c r="LC62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="LD62" t="n">
+      <c r="LD62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LE62" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -60425,8 +60611,11 @@
       <c r="LC63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LD63" t="n">
+      <c r="LD63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LE63" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -61377,7 +61566,10 @@
       <c r="LC64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="LD64" t="n">
+      <c r="LD64" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="LE64" t="n">
         <v>24</v>
       </c>
     </row>
@@ -62329,8 +62521,11 @@
       <c r="LC65" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LD65" t="n">
+      <c r="LD65" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="LE65" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -63281,8 +63476,11 @@
       <c r="LC66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LD66" t="n">
+      <c r="LD66" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LE66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -64233,8 +64431,11 @@
       <c r="LC67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD67" t="n">
+      <c r="LD67" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LE67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -65185,8 +65386,11 @@
       <c r="LC68" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LD68" t="n">
+      <c r="LD68" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LE68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -66137,8 +66341,11 @@
       <c r="LC69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LD69" t="n">
+      <c r="LD69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LE69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -67089,8 +67296,11 @@
       <c r="LC70" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LD70" t="n">
+      <c r="LD70" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="LE70" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -68041,8 +68251,11 @@
       <c r="LC71" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="LD71" t="n">
+      <c r="LD71" s="2" t="n">
         <v>63.3</v>
+      </c>
+      <c r="LE71" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -68993,8 +69206,11 @@
       <c r="LC72" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="LD72" t="n">
+      <c r="LD72" s="2" t="n">
         <v>19.58</v>
+      </c>
+      <c r="LE72" t="n">
+        <v>29.38</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -69945,8 +70161,11 @@
       <c r="LC73" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="LD73" t="n">
+      <c r="LD73" s="2" t="n">
         <v>12.4</v>
+      </c>
+      <c r="LE73" t="n">
+        <v>15.28</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -70897,8 +71116,11 @@
       <c r="LC74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LD74" t="n">
+      <c r="LD74" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LE74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -71849,8 +72071,11 @@
       <c r="LC75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LD75" t="n">
+      <c r="LD75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LE75" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -72801,8 +73026,11 @@
       <c r="LC76" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LD76" t="n">
+      <c r="LD76" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LE76" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -73753,8 +73981,11 @@
       <c r="LC77" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="LD77" t="n">
+      <c r="LD77" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="LE77" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -74705,8 +74936,11 @@
       <c r="LC78" s="2" t="n">
         <v>2.67</v>
       </c>
-      <c r="LD78" t="n">
+      <c r="LD78" s="2" t="n">
         <v>2.07</v>
+      </c>
+      <c r="LE78" t="n">
+        <v>1.92</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -75657,8 +75891,11 @@
       <c r="LC79" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LD79" t="n">
+      <c r="LD79" s="2" t="n">
         <v>3.26</v>
+      </c>
+      <c r="LE79" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -76609,8 +76846,11 @@
       <c r="LC80" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="LD80" t="n">
+      <c r="LD80" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="LE80" t="n">
+        <v>47.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -77561,8 +77801,11 @@
       <c r="LC81" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="LD81" t="n">
+      <c r="LD81" s="2" t="n">
         <v>30.6</v>
+      </c>
+      <c r="LE81" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -78513,8 +78756,11 @@
       <c r="LC82" s="2" t="n">
         <v>187.6</v>
       </c>
-      <c r="LD82" t="n">
+      <c r="LD82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="LE82" t="n">
+        <v>188.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -79465,8 +79711,11 @@
       <c r="LC83" s="2" t="n">
         <v>86.3</v>
       </c>
-      <c r="LD83" t="n">
+      <c r="LD83" s="2" t="n">
         <v>87.90000000000001</v>
+      </c>
+      <c r="LE83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -80417,8 +80666,11 @@
       <c r="LC84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="LD84" t="n">
+      <c r="LD84" s="2" t="n">
         <v>27.33</v>
+      </c>
+      <c r="LE84" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -81369,8 +81621,11 @@
       <c r="LC85" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="LD85" t="n">
+      <c r="LD85" s="2" t="n">
         <v>128.6</v>
+      </c>
+      <c r="LE85" t="n">
+        <v>83.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -82321,8 +82576,11 @@
       <c r="LC86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD86" t="n">
+      <c r="LD86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LE86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -83273,8 +83531,11 @@
       <c r="LC87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LD87" t="n">
+      <c r="LD87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LE87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -84225,8 +84486,11 @@
       <c r="LC88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD88" t="n">
+      <c r="LD88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LE88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -85177,8 +85441,11 @@
       <c r="LC89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LD89" t="n">
+      <c r="LD89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LE89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -86129,8 +86396,11 @@
       <c r="LC90" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="LD90" t="n">
+      <c r="LD90" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="LE90" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -87081,8 +87351,11 @@
       <c r="LC91" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="LD91" t="n">
+      <c r="LD91" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="LE91" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -88033,8 +88306,11 @@
       <c r="LC92" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="LD92" t="n">
+      <c r="LD92" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="LE92" t="n">
+        <v>273</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -88985,8 +89261,11 @@
       <c r="LC93" s="2" t="n">
         <v>76.3</v>
       </c>
-      <c r="LD93" t="n">
+      <c r="LD93" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="LE93" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -89937,8 +90216,11 @@
       <c r="LC94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LD94" t="n">
+      <c r="LD94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="LE94" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -90889,8 +91171,11 @@
       <c r="LC95" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD95" t="n">
+      <c r="LD95" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LE95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -91841,8 +92126,11 @@
       <c r="LC96" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LD96" t="n">
+      <c r="LD96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LE96" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -92793,8 +93081,11 @@
       <c r="LC97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="LD97" t="n">
+      <c r="LD97" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="LE97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -93745,8 +94036,11 @@
       <c r="LC98" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="LD98" t="n">
+      <c r="LD98" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="LE98" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -94697,8 +94991,11 @@
       <c r="LC99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="LD99" t="n">
+      <c r="LD99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="LE99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -95649,8 +95946,11 @@
       <c r="LC100" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="LD100" t="n">
+      <c r="LD100" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LE100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -96601,8 +96901,11 @@
       <c r="LC101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="LD101" t="n">
+      <c r="LD101" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="LE101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -97553,8 +97856,11 @@
       <c r="LC102" s="2" t="n">
         <v>62.5</v>
       </c>
-      <c r="LD102" t="n">
+      <c r="LD102" s="2" t="n">
         <v>94.7</v>
+      </c>
+      <c r="LE102" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/Geelong_stats.xlsx
+++ b/AFL_ML/Data/Geelong_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:LF102"/>
+  <dimension ref="A1:LG102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="IO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JC11" activeCellId="0" sqref="JC11"/>
@@ -1407,8 +1407,11 @@
       <c r="LE1" s="2" t="n">
         <v>10760</v>
       </c>
-      <c r="LF1" t="n">
+      <c r="LF1" s="2" t="n">
         <v>10775</v>
+      </c>
+      <c r="LG1" t="n">
+        <v>10786</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2365,7 +2368,10 @@
       <c r="LE2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="LF2" t="n">
+      <c r="LF2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="LG2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3323,8 +3329,11 @@
       <c r="LE3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LF3" t="n">
+      <c r="LF3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LG3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -4281,8 +4290,11 @@
       <c r="LE4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="LF4" t="n">
+      <c r="LF4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="LG4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -5239,7 +5251,10 @@
       <c r="LE5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LF5" t="n">
+      <c r="LF5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LG5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6197,8 +6212,11 @@
       <c r="LE6" s="2" t="n">
         <v>82</v>
       </c>
-      <c r="LF6" t="n">
+      <c r="LF6" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="LG6" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -7155,8 +7173,11 @@
       <c r="LE7" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="LF7" t="n">
+      <c r="LF7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="LG7" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -8113,8 +8134,11 @@
       <c r="LE8" s="2" t="n">
         <v>-8</v>
       </c>
-      <c r="LF8" t="n">
+      <c r="LF8" s="2" t="n">
         <v>-19</v>
+      </c>
+      <c r="LG8" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -9071,8 +9095,11 @@
       <c r="LE9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LF9" t="n">
+      <c r="LF9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LG9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -10029,8 +10056,11 @@
       <c r="LE10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LF10" t="n">
+      <c r="LF10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="LG10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -10987,8 +11017,11 @@
       <c r="LE11" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="LF11" t="n">
+      <c r="LF11" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="LG11" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -11945,8 +11978,11 @@
       <c r="LE12" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="LF12" t="n">
+      <c r="LF12" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="LG12" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -12903,8 +12939,11 @@
       <c r="LE13" s="2" t="n">
         <v>328</v>
       </c>
-      <c r="LF13" t="n">
+      <c r="LF13" s="2" t="n">
         <v>347</v>
+      </c>
+      <c r="LG13" t="n">
+        <v>391</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -13861,8 +13900,11 @@
       <c r="LE14" s="2" t="n">
         <v>1.34</v>
       </c>
-      <c r="LF14" t="n">
+      <c r="LF14" s="2" t="n">
         <v>1.73</v>
+      </c>
+      <c r="LG14" t="n">
+        <v>1.72</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -14819,8 +14861,11 @@
       <c r="LE15" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="LF15" t="n">
+      <c r="LF15" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="LG15" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -15777,8 +15822,11 @@
       <c r="LE16" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="LF16" t="n">
+      <c r="LF16" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="LG16" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -16735,8 +16783,11 @@
       <c r="LE17" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="LF17" t="n">
+      <c r="LF17" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="LG17" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -17693,8 +17744,11 @@
       <c r="LE18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LF18" t="n">
+      <c r="LF18" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LG18" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -18651,8 +18705,11 @@
       <c r="LE19" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LF19" t="n">
+      <c r="LF19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LG19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -19609,8 +19666,11 @@
       <c r="LE20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="LF20" t="n">
+      <c r="LF20" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LG20" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -20567,8 +20627,11 @@
       <c r="LE21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LF21" t="n">
+      <c r="LF21" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LG21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -21525,8 +21588,11 @@
       <c r="LE22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LF22" t="n">
+      <c r="LF22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LG22" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -22483,8 +22549,11 @@
       <c r="LE23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LF23" t="n">
+      <c r="LF23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="LG23" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -23441,8 +23510,11 @@
       <c r="LE24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="LF24" t="n">
+      <c r="LF24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="LG24" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -24399,8 +24471,11 @@
       <c r="LE25" s="2" t="n">
         <v>54.5</v>
       </c>
-      <c r="LF25" t="n">
+      <c r="LF25" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="LG25" t="n">
+        <v>59.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -25357,8 +25432,11 @@
       <c r="LE26" s="2" t="n">
         <v>27.33</v>
       </c>
-      <c r="LF26" t="n">
+      <c r="LF26" s="2" t="n">
         <v>49.57</v>
+      </c>
+      <c r="LG26" t="n">
+        <v>20.58</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -26315,8 +26393,11 @@
       <c r="LE27" s="2" t="n">
         <v>14.91</v>
       </c>
-      <c r="LF27" t="n">
+      <c r="LF27" s="2" t="n">
         <v>18.26</v>
+      </c>
+      <c r="LG27" t="n">
+        <v>12.22</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -27273,8 +27354,11 @@
       <c r="LE28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LF28" t="n">
+      <c r="LF28" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LG28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -28231,8 +28315,11 @@
       <c r="LE29" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="LF29" t="n">
+      <c r="LF29" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="LG29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -29189,8 +29276,11 @@
       <c r="LE30" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="LF30" t="n">
+      <c r="LF30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="LG30" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -30147,8 +30237,11 @@
       <c r="LE31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="LF31" t="n">
+      <c r="LF31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="LG31" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -31105,8 +31198,11 @@
       <c r="LE32" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="LF32" t="n">
+      <c r="LF32" s="2" t="n">
         <v>2.74</v>
+      </c>
+      <c r="LG32" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -32063,8 +32159,11 @@
       <c r="LE33" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="LF33" t="n">
+      <c r="LF33" s="2" t="n">
         <v>7.43</v>
+      </c>
+      <c r="LG33" t="n">
+        <v>3.26</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -33021,8 +33120,11 @@
       <c r="LE34" s="2" t="n">
         <v>35.2</v>
       </c>
-      <c r="LF34" t="n">
+      <c r="LF34" s="2" t="n">
         <v>30.8</v>
+      </c>
+      <c r="LG34" t="n">
+        <v>48.4</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -33979,8 +34081,11 @@
       <c r="LE35" s="2" t="n">
         <v>22.2</v>
       </c>
-      <c r="LF35" t="n">
+      <c r="LF35" s="2" t="n">
         <v>13.5</v>
+      </c>
+      <c r="LG35" t="n">
+        <v>30.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -34937,8 +35042,11 @@
       <c r="LE36" s="2" t="n">
         <v>188.8</v>
       </c>
-      <c r="LF36" t="n">
+      <c r="LF36" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="LG36" t="n">
+        <v>188.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -35895,8 +36003,11 @@
       <c r="LE37" s="2" t="n">
         <v>88.8</v>
       </c>
-      <c r="LF37" t="n">
+      <c r="LF37" s="2" t="n">
         <v>89.09999999999999</v>
+      </c>
+      <c r="LG37" t="n">
+        <v>89.3</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -36853,8 +36964,11 @@
       <c r="LE38" s="2" t="n">
         <v>27.24</v>
       </c>
-      <c r="LF38" t="n">
+      <c r="LF38" s="2" t="n">
         <v>27.66</v>
+      </c>
+      <c r="LG38" t="n">
+        <v>28.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -37811,8 +37925,11 @@
       <c r="LE39" s="2" t="n">
         <v>131</v>
       </c>
-      <c r="LF39" t="n">
+      <c r="LF39" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="LG39" t="n">
+        <v>153.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -38769,8 +38886,11 @@
       <c r="LE40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LF40" t="n">
+      <c r="LF40" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LG40" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -39727,7 +39847,10 @@
       <c r="LE41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="LF41" t="n">
+      <c r="LF41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="LG41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -40685,8 +40808,11 @@
       <c r="LE42" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="LF42" t="n">
+      <c r="LF42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LG42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -41643,8 +41769,11 @@
       <c r="LE43" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LF43" t="n">
+      <c r="LF43" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LG43" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -42601,8 +42730,11 @@
       <c r="LE44" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="LF44" t="n">
+      <c r="LF44" s="2" t="n">
         <v>121</v>
+      </c>
+      <c r="LG44" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -43559,8 +43691,11 @@
       <c r="LE45" s="2" t="n">
         <v>197</v>
       </c>
-      <c r="LF45" t="n">
+      <c r="LF45" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="LG45" t="n">
+        <v>248</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -44517,8 +44652,11 @@
       <c r="LE46" s="2" t="n">
         <v>225</v>
       </c>
-      <c r="LF46" t="n">
+      <c r="LF46" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="LG46" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -45475,8 +45613,11 @@
       <c r="LE47" s="2" t="n">
         <v>68.59999999999999</v>
       </c>
-      <c r="LF47" t="n">
+      <c r="LF47" s="2" t="n">
         <v>72.59999999999999</v>
+      </c>
+      <c r="LG47" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -46433,8 +46574,11 @@
       <c r="LE48" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="LF48" t="n">
+      <c r="LF48" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="LG48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -47391,8 +47535,11 @@
       <c r="LE49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LF49" t="n">
+      <c r="LF49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LG49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -48349,8 +48496,11 @@
       <c r="LE50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LF50" t="n">
+      <c r="LF50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="LG50" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -49307,8 +49457,11 @@
       <c r="LE51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="LF51" t="n">
+      <c r="LF51" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LG51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -50265,8 +50418,11 @@
       <c r="LE52" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="LF52" t="n">
+      <c r="LF52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="LG52" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -51223,8 +51379,11 @@
       <c r="LE53" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="LF53" t="n">
+      <c r="LF53" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="LG53" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -52181,8 +52340,11 @@
       <c r="LE54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="LF54" t="n">
+      <c r="LF54" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="LG54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -53139,8 +53301,11 @@
       <c r="LE55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LF55" t="n">
+      <c r="LF55" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="LG55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -54097,8 +54262,11 @@
       <c r="LE56" s="2" t="n">
         <v>91.7</v>
       </c>
-      <c r="LF56" t="n">
+      <c r="LF56" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="LG56" t="n">
+        <v>68.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -55055,8 +55223,11 @@
       <c r="LE57" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="LF57" t="n">
+      <c r="LF57" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="LG57" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -56013,8 +56184,11 @@
       <c r="LE58" s="2" t="n">
         <v>135</v>
       </c>
-      <c r="LF58" t="n">
+      <c r="LF58" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="LG58" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -56971,8 +57145,11 @@
       <c r="LE59" s="2" t="n">
         <v>382</v>
       </c>
-      <c r="LF59" t="n">
+      <c r="LF59" s="2" t="n">
         <v>345</v>
+      </c>
+      <c r="LG59" t="n">
+        <v>312</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -57929,8 +58106,11 @@
       <c r="LE60" s="2" t="n">
         <v>1.83</v>
       </c>
-      <c r="LF60" t="n">
+      <c r="LF60" s="2" t="n">
         <v>1.56</v>
+      </c>
+      <c r="LG60" t="n">
+        <v>1.58</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -58887,8 +59067,11 @@
       <c r="LE61" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="LF61" t="n">
+      <c r="LF61" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="LG61" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -59845,8 +60028,11 @@
       <c r="LE62" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="LF62" t="n">
+      <c r="LF62" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="LG62" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -60803,7 +60989,10 @@
       <c r="LE63" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="LF63" t="n">
+      <c r="LF63" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="LG63" t="n">
         <v>38</v>
       </c>
     </row>
@@ -61761,8 +61950,11 @@
       <c r="LE64" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="LF64" t="n">
+      <c r="LF64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LG64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -62719,8 +62911,11 @@
       <c r="LE65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="LF65" t="n">
+      <c r="LF65" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="LG65" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -63677,8 +63872,11 @@
       <c r="LE66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="LF66" t="n">
+      <c r="LF66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LG66" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -64635,8 +64833,11 @@
       <c r="LE67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LF67" t="n">
+      <c r="LF67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LG67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -65593,8 +65794,11 @@
       <c r="LE68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LF68" t="n">
+      <c r="LF68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="LG68" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -66551,8 +66755,11 @@
       <c r="LE69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="LF69" t="n">
+      <c r="LF69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="LG69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -67509,8 +67716,11 @@
       <c r="LE70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="LF70" t="n">
+      <c r="LF70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="LG70" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -68467,8 +68677,11 @@
       <c r="LE71" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="LF71" t="n">
+      <c r="LF71" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="LG71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -69425,8 +69638,11 @@
       <c r="LE72" s="2" t="n">
         <v>29.38</v>
       </c>
-      <c r="LF72" t="n">
+      <c r="LF72" s="2" t="n">
         <v>34.5</v>
+      </c>
+      <c r="LG72" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -70383,8 +70599,11 @@
       <c r="LE73" s="2" t="n">
         <v>15.28</v>
       </c>
-      <c r="LF73" t="n">
+      <c r="LF73" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LG73" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -71341,8 +71560,11 @@
       <c r="LE74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="LF74" t="n">
+      <c r="LF74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="LG74" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -72299,8 +72521,11 @@
       <c r="LE75" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="LF75" t="n">
+      <c r="LF75" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="LG75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -73257,8 +73482,11 @@
       <c r="LE76" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LF76" t="n">
+      <c r="LF76" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LG76" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -74215,8 +74443,11 @@
       <c r="LE77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="LF77" t="n">
+      <c r="LF77" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LG77" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -75173,8 +75404,11 @@
       <c r="LE78" s="2" t="n">
         <v>1.92</v>
       </c>
-      <c r="LF78" t="n">
+      <c r="LF78" s="2" t="n">
         <v>2.13</v>
+      </c>
+      <c r="LG78" t="n">
+        <v>2.53</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -76131,8 +76365,11 @@
       <c r="LE79" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="LF79" t="n">
+      <c r="LF79" s="2" t="n">
         <v>4.9</v>
+      </c>
+      <c r="LG79" t="n">
+        <v>6.33</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -77089,8 +77326,11 @@
       <c r="LE80" s="2" t="n">
         <v>47.9</v>
       </c>
-      <c r="LF80" t="n">
+      <c r="LF80" s="2" t="n">
         <v>46.9</v>
+      </c>
+      <c r="LG80" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -78047,8 +78287,11 @@
       <c r="LE81" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="LF81" t="n">
+      <c r="LF81" s="2" t="n">
         <v>20.4</v>
+      </c>
+      <c r="LG81" t="n">
+        <v>15.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -79005,8 +79248,11 @@
       <c r="LE82" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="LF82" t="n">
+      <c r="LF82" s="2" t="n">
         <v>187.3</v>
+      </c>
+      <c r="LG82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -79963,8 +80209,11 @@
       <c r="LE83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="LF83" t="n">
+      <c r="LF83" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="LG83" t="n">
+        <v>85.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -80921,8 +81170,11 @@
       <c r="LE84" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="LF84" t="n">
+      <c r="LF84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="LG84" t="n">
+        <v>24.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -81879,8 +82131,11 @@
       <c r="LE85" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="LF85" t="n">
+      <c r="LF85" s="2" t="n">
         <v>83.2</v>
+      </c>
+      <c r="LG85" t="n">
+        <v>75.09999999999999</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -82837,8 +83092,11 @@
       <c r="LE86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LF86" t="n">
+      <c r="LF86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LG86" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -83795,8 +84053,11 @@
       <c r="LE87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="LF87" t="n">
+      <c r="LF87" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="LG87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -84753,8 +85014,11 @@
       <c r="LE88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="LF88" t="n">
+      <c r="LF88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="LG88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -85711,8 +85975,11 @@
       <c r="LE89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LF89" t="n">
+      <c r="LF89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="LG89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -86669,8 +86936,11 @@
       <c r="LE90" s="2" t="n">
         <v>136</v>
       </c>
-      <c r="LF90" t="n">
+      <c r="LF90" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="LG90" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -87627,8 +87897,11 @@
       <c r="LE91" s="2" t="n">
         <v>234</v>
       </c>
-      <c r="LF91" t="n">
+      <c r="LF91" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="LG91" t="n">
+        <v>180</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -88585,8 +88858,11 @@
       <c r="LE92" s="2" t="n">
         <v>273</v>
       </c>
-      <c r="LF92" t="n">
+      <c r="LF92" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="LG92" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -89543,8 +89819,11 @@
       <c r="LE93" s="2" t="n">
         <v>71.5</v>
       </c>
-      <c r="LF93" t="n">
+      <c r="LF93" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="LG93" t="n">
+        <v>68.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -90501,8 +90780,11 @@
       <c r="LE94" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="LF94" t="n">
+      <c r="LF94" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="LG94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -91459,8 +91741,11 @@
       <c r="LE95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="LF95" t="n">
+      <c r="LF95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="LG95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -92417,8 +92702,11 @@
       <c r="LE96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="LF96" t="n">
+      <c r="LF96" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="LG96" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -93375,8 +93663,11 @@
       <c r="LE97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="LF97" t="n">
+      <c r="LF97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="LG97" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -94333,8 +94624,11 @@
       <c r="LE98" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="LF98" t="n">
+      <c r="LF98" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="LG98" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -95291,8 +95585,11 @@
       <c r="LE99" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="LF99" t="n">
+      <c r="LF99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="LG99" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -96249,8 +96546,11 @@
       <c r="LE100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="LF100" t="n">
+      <c r="LF100" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="LG100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -97207,8 +97507,11 @@
       <c r="LE101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="LF101" t="n">
+      <c r="LF101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="LG101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -98165,8 +98468,11 @@
       <c r="LE102" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="LF102" t="n">
+      <c r="LF102" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="LG102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>
